--- a/chapter4/Chapter4-1a.xlsx
+++ b/chapter4/Chapter4-1a.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E4DB7E-83FB-44DD-B504-BF718A010FD6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="iris" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">iris!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">iris!$M$5:$M$9</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">iris!$L$20</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,18 +45,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{CEF32D18-C8CD-4BE9-B4DC-EAC474ADDC4B}" keepAlive="1" name="Query - iris" description="Connection to the 'iris' query in the workbook." type="5" refreshedVersion="6" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - iris" description="Connection to the 'iris' query in the workbook." type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=iris;Extended Properties=&quot;&quot;" command="SELECT * FROM [iris]"/>
   </connection>
-  <connection id="2" xr16:uid="{31551D76-C3A7-4CEC-971C-1CFCAC884E7A}" keepAlive="1" name="Query - iris (2)" description="Connection to the 'iris (2)' query in the workbook." type="5" refreshedVersion="6" background="1">
+  <connection id="2" keepAlive="1" name="Query - iris (2)" description="Connection to the 'iris (2)' query in the workbook." type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=iris (2);Extended Properties=&quot;&quot;" command="SELECT * FROM [iris (2)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="27">
   <si>
     <t>x1</t>
   </si>
@@ -65,12 +81,69 @@
   <si>
     <t>iris type</t>
   </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>w4</t>
+  </si>
+  <si>
+    <t>Numerical prediction</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>cutoff</t>
+  </si>
+  <si>
+    <t>no samples</t>
+  </si>
+  <si>
+    <t>Type classification</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Intergroup variance</t>
+  </si>
+  <si>
+    <t>Withingroup variance</t>
+  </si>
+  <si>
+    <t>Inter/within ratio</t>
+  </si>
+  <si>
+    <t>Within-g variances</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>LINEST</t>
+  </si>
+  <si>
+    <t>Solver</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +155,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,14 +188,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -170,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -205,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -382,26 +475,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6F9794-CF5C-44C4-BEC4-A017D876471F}">
-  <dimension ref="A1:E151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -417,8 +515,29 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -434,8 +553,34 @@
       <c r="E2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>IF(A2=L$1,K$1,IF(A2=$L$2,K$2,K$3))</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>M$6*B2+M$7*C2+M$8*D2+M$9*E2+M$5</f>
+        <v>-0.88580402140339998</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(G2&lt;M$12,L$1,IF(G2&lt;M$13,L$2,L$3))</f>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I2">
+        <f>IF(H2&lt;&gt;A2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>IF(F2=K$1,(G2-K$12)^2,IF(F2=K$2, (G2-K$13)^2,(G2-K$14)^2))</f>
+        <v>7.1901848901306919E-3</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -451,8 +596,34 @@
       <c r="E3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">IF(A3=L$1,K$1,IF(A3=$L$2,K$2,K$3))</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">M$6*B3+M$7*C3+M$8*D3+M$9*E3+M$5</f>
+        <v>-0.71637570372731718</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="2">IF(G3&lt;M$12,L$1,IF(G3&lt;M$13,L$2,L$3))</f>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="3">IF(H3&lt;&gt;A3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="4">IF(F3=K$1,(G3-K$12)^2,IF(F3=K$2, (G3-K$13)^2,(G3-K$14)^2))</f>
+        <v>7.1628055821292272E-3</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -468,8 +639,34 @@
       <c r="E4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-0.78217754487702063</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>3.5462609269459031E-4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -485,8 +682,40 @@
       <c r="E5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-0.6604614152560061</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>1.9753641419804582E-2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>0.19208399564604742</v>
+      </c>
+      <c r="N5">
+        <v>0.19208399482813998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -502,8 +731,40 @@
       <c r="E6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-0.89896755379375226</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>9.595865825588655E-3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>-0.14801522246331808</v>
+      </c>
+      <c r="N6">
+        <v>-0.10974146329308722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -519,8 +780,40 @@
       <c r="E7">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-0.82052481695071577</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>3.8086463373678122E-4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>-0.2796505463668385</v>
+      </c>
+      <c r="N7">
+        <v>-4.4240446717651427E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -536,8 +829,40 @@
       <c r="E8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-0.73227152521934891</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>4.7248491654052933E-3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0.39474776368999487</v>
+      </c>
+      <c r="N8">
+        <v>0.22700138217190427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -553,8 +878,40 @@
       <c r="E9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-0.80356266815138488</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>6.5208968448077777E-6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.51559830315708366</v>
+      </c>
+      <c r="N9">
+        <v>0.60989411971638674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -570,8 +927,28 @@
       <c r="E10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-0.61440303785897443</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>3.4821808796095303E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -587,8 +964,37 @@
       <c r="E11">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-0.75642581231071016</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>1.9876662843510374E-3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -604,8 +1010,43 @@
       <c r="E12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-0.946663921046764</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>2.1215337534339442E-2</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGEIFS(G$2:G$151,F$2:F$151,K1)</f>
+        <v>-0.80100906347469591</v>
+      </c>
+      <c r="L12">
+        <f>COUNTIFS(F$2:F$151,K1)</f>
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <f>(K12*L12+K13*L13)/(L12+L13)</f>
+        <v>5.1566690749312014E-2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -621,8 +1062,43 @@
       <c r="E13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-0.73448484728972174</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>4.4254713390251797E-3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K14" si="5">AVERAGEIFS(G$2:G$151,F$2:F$151,K2)</f>
+        <v>0.90414244497331997</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L14" si="6">COUNTIFS(F$2:F$151,K2)</f>
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <f>(K13*L13+K14*L14)/(L13+L14)</f>
+        <v>1.2628315881695764</v>
+      </c>
+      <c r="O13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -638,8 +1114,39 @@
       <c r="E14">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-0.7531340117966937</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>2.2920205731713824E-3</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>1.6215207313658331</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="O14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -655,8 +1162,28 @@
       <c r="E15">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-0.797550729672033</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>1.1960072690640947E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -672,8 +1199,36 @@
       <c r="E16">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-1.208189503049141</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0.16579591037203831</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3">
+        <f>SUM(I2:I151)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -689,8 +1244,28 @@
       <c r="E17">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-1.0837042096111293</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>7.9916545649099446E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -706,8 +1281,35 @@
       <c r="E18">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>-0.97842392242671372</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>3.1476032176964375E-2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <f>(K12-AVERAGE(K12:K14))^2+(K13-AVERAGE(K12:K14))^2+(K14-AVERAGE(K12:K14))^2</f>
+        <v>3.0969412931467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -723,8 +1325,35 @@
       <c r="E19">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-0.83424419108769143</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>1.1045737074520973E-3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19">
+        <f>SUM(J2:J151)</f>
+        <v>4.7981924622695402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -740,8 +1369,35 @@
       <c r="E20">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-0.88852415936873541</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>7.6588920093429288E-3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20">
+        <f>L18/L19</f>
+        <v>0.64543915599455759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -757,8 +1413,28 @@
       <c r="E21">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-0.8786645786287437</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>6.0303790338405447E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -774,8 +1450,31 @@
       <c r="E22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-0.783819204398713</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>2.9549125505215224E-4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -791,8 +1490,34 @@
       <c r="E23">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-0.79913969367635129</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>3.4945434429630138E-6</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>1.7877430212732985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -808,8 +1533,34 @@
       <c r="E24">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-0.99766057028442279</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>3.8671815130536052E-2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24">
+        <v>3.6550856896509707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -825,8 +1576,34 @@
       <c r="E25">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-0.55677009207590844</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>5.9652675149937724E-2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25">
+        <v>0.48911111067385471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -842,8 +1619,28 @@
       <c r="E26">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-0.61606051818272334</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>3.420596440561683E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -859,8 +1656,28 @@
       <c r="E27">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-0.6522276732356499</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>2.2135902081463297E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -876,8 +1693,28 @@
       <c r="E28">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-0.66096823115096859</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>1.9611434717922312E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -893,8 +1730,28 @@
       <c r="E29">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-0.86113076728073246</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>3.6146192685407889E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -910,8 +1767,28 @@
       <c r="E30">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-0.87264048901304814</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>5.1310611246564988E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -927,8 +1804,28 @@
       <c r="E31">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-0.66375321577002222</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>1.8839167729128581E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -944,8 +1841,28 @@
       <c r="E32">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-0.65058968337967016</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>2.2625989908171832E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -961,8 +1878,28 @@
       <c r="E33">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-0.75964909650529533</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>1.7106468677099075E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -978,8 +1915,28 @@
       <c r="E34">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-1.0804809254165439</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>7.8104521617243364E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -995,8 +1952,28 @@
       <c r="E35">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-1.1407654928455144</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>0.11543443129880798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1012,8 +1989,28 @@
       <c r="E36">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-0.75642581231071016</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>1.9876662843510374E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1029,8 +2026,28 @@
       <c r="E37">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-0.86605688798501568</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>4.2312194735253566E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1046,8 +2063,28 @@
       <c r="E38">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>-0.98448488675772672</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>3.3663377729385949E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1063,8 +2100,28 @@
       <c r="E39">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>-0.75642581231071016</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>1.9876662843510374E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1080,8 +2137,28 @@
       <c r="E40">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>-0.6818428688646575</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>1.4200581937837548E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1097,8 +2174,28 @@
       <c r="E41">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>-0.8183641903977168</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>3.012004305141642E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1114,8 +2211,28 @@
       <c r="E42">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>-0.85891744521035918</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>3.3533806752432983E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1131,8 +2248,28 @@
       <c r="E43">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>-0.44932917833849395</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>0.12367874160941221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1148,8 +2285,28 @@
       <c r="E44">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>-0.73777297813802523</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>3.9988024887066976E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1165,8 +2322,28 @@
       <c r="E45">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>-0.58581362515623581</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>4.630907667307417E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1182,8 +2359,28 @@
       <c r="E46">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>-0.66920564283703743</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>1.7372141691787538E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1199,8 +2396,28 @@
       <c r="E47">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>-0.65001435116527695</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>2.2799403145404198E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1216,8 +2433,28 @@
       <c r="E48">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>-0.8907496325754527</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>8.0533697425277037E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1233,8 +2470,28 @@
       <c r="E49">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>-0.72790124626168951</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>5.3447529376503562E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1250,8 +2507,28 @@
       <c r="E50">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>-0.93186239880043198</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>1.7122595365869527E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1267,8 +2544,28 @@
       <c r="E51">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>-0.81507238988370045</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>1.9777714968620451E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1284,8 +2581,28 @@
       <c r="E52">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0.8382478037918305</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>4.3421037364372471E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1301,8 +2618,28 @@
       <c r="E53">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0.89966721484753087</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>2.0027684678770307E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1318,8 +2655,28 @@
       <c r="E54">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>1.0115237637285537</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>1.1530747617613107E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1335,8 +2692,28 @@
       <c r="E55">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.98407286431825758</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>6.3888719366575761E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1352,8 +2729,28 @@
       <c r="E56">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>1.0362006875169338</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>1.7439379423707949E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1369,8 +2766,28 @@
       <c r="E57">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>1.0120184284871723</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>1.1637227819080933E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1386,8 +2803,28 @@
       <c r="E58">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>1.0170130655108867</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>1.2739776980535371E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1403,8 +2840,28 @@
       <c r="E59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0.61391401762944309</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>8.4232540038500017E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1420,8 +2877,28 @@
       <c r="E60">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0.89031445000250142</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>1.9121344491298303E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1437,8 +2914,28 @@
       <c r="E61">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0.92870226645722631</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>6.0318483132134747E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1454,8 +2951,28 @@
       <c r="E62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0.7899222666678456</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>1.3046249132134358E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1471,8 +2988,28 @@
       <c r="E63">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0.91118060624555919</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>4.9535714094047971E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1488,8 +3025,28 @@
       <c r="E64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0.78335081677615737</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>1.4590617442521568E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1505,8 +3062,28 @@
       <c r="E65">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>1.0553566679188686</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>2.2865741221026092E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1522,8 +3099,28 @@
       <c r="E66">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0.64358190877582466</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="2"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="4"/>
+        <v>6.7891793023526256E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1539,8 +3136,28 @@
       <c r="E67">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="7">IF(A67=L$1,K$1,IF(A67=$L$2,K$2,K$3))</f>
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="8">M$6*B67+M$7*C67+M$8*D67+M$9*E67+M$5</f>
+        <v>0.79219309606051158</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H130" si="9">IF(G67&lt;M$12,L$1,IF(G67&lt;M$13,L$2,L$3))</f>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="10">IF(H67&lt;&gt;A67,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="11">IF(F67=K$1,(G67-K$12)^2,IF(F67=K$2, (G67-K$13)^2,(G67-K$14)^2))</f>
+        <v>1.2532656722001713E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1556,8 +3173,28 @@
       <c r="E68">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="8"/>
+        <v>1.0740095020915532</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="11"/>
+        <v>2.8854817094009114E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1573,8 +3210,28 @@
       <c r="E69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="8"/>
+        <v>0.71260336445440098</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="11"/>
+        <v>3.6687219366032933E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1590,8 +3247,28 @@
       <c r="E70">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="8"/>
+        <v>1.2089208057070329</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="11"/>
+        <v>9.2889849171529232E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1607,8 +3284,28 @@
       <c r="E71">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="8"/>
+        <v>0.77074679579814187</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="11"/>
+        <v>1.7794399218867194E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1624,8 +3321,28 @@
       <c r="E72">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="8"/>
+        <v>1.2467786461333132</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="11"/>
+        <v>0.11739956634535137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1641,8 +3358,28 @@
       <c r="E73">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>0.75543845765684769</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="11"/>
+        <v>2.2112875843817548E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1658,8 +3395,28 @@
       <c r="E74">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>1.2681232250266476</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="11"/>
+        <v>0.13248200824822889</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -1675,8 +3432,28 @@
       <c r="E75">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>0.98020206192413595</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="11"/>
+        <v>5.7850653307048531E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1692,8 +3469,28 @@
       <c r="E76">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="8"/>
+        <v>0.80149316538816662</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="11"/>
+        <v>1.053687459935098E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1709,8 +3506,28 @@
       <c r="E77">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="8"/>
+        <v>0.83495967294352746</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="11"/>
+        <v>4.7862559457262401E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -1726,8 +3543,28 @@
       <c r="E78">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="8"/>
+        <v>1.0191858432002294</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="11"/>
+        <v>1.3234983475595274E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1743,8 +3580,28 @@
       <c r="E79">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="8"/>
+        <v>1.2116862998583173</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="11"/>
+        <v>9.4583222677524309E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -1760,8 +3617,28 @@
       <c r="E80">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="8"/>
+        <v>1.0427684677429097</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="11"/>
+        <v>1.9217174188914797E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -1777,8 +3654,28 @@
       <c r="E81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="8"/>
+        <v>0.51852128312341961</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="11"/>
+        <v>0.14870368046646706</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -1794,8 +3691,28 @@
       <c r="E82">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="8"/>
+        <v>0.77403859631215821</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="11"/>
+        <v>1.6927011436446482E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -1811,8 +3728,28 @@
       <c r="E83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="8"/>
+        <v>0.68300398962745046</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="11"/>
+        <v>4.8902216432757127E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -1828,8 +3765,28 @@
       <c r="E84">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="8"/>
+        <v>0.73677347234781887</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="11"/>
+        <v>2.8012372997715737E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -1845,8 +3802,28 @@
       <c r="E85">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="8"/>
+        <v>1.3871070655459825</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="11"/>
+        <v>0.23325482472489589</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -1862,8 +3839,28 @@
       <c r="E86">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="8"/>
+        <v>1.1036125465842166</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="11"/>
+        <v>3.9788321436661424E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -1879,8 +3876,28 @@
       <c r="E87">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="8"/>
+        <v>0.954503024875199</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="11"/>
+        <v>2.5361880080535422E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1896,8 +3913,28 @@
       <c r="E88">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="8"/>
+        <v>0.96217725548321842</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="11"/>
+        <v>3.3680392309198195E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -1913,8 +3950,28 @@
       <c r="E89">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="8"/>
+        <v>1.0235597918236015</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="11"/>
+        <v>1.4260502728760435E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -1930,8 +3987,28 @@
       <c r="E90">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="8"/>
+        <v>0.81299073598413829</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="11"/>
+        <v>8.3086340516484638E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -1947,8 +4024,28 @@
       <c r="E91">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="8"/>
+        <v>0.92814275504488986</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="11"/>
+        <v>5.7601488353149885E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -1964,8 +4061,28 @@
       <c r="E92">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="8"/>
+        <v>1.006516975568496</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="11"/>
+        <v>1.0480544514582623E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -1981,8 +4098,28 @@
       <c r="E93">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="8"/>
+        <v>0.9879168369131851</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="11"/>
+        <v>7.0181487448941404E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -1998,8 +4135,28 @@
       <c r="E94">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="8"/>
+        <v>0.80421330335350227</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="11"/>
+        <v>9.9858333448735806E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2015,8 +4172,28 @@
       <c r="E95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="8"/>
+        <v>0.62707755001979493</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="11"/>
+        <v>7.6764956015607871E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2032,8 +4209,28 @@
       <c r="E96">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="8"/>
+        <v>0.93636067626318942</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="11"/>
+        <v>1.0380144274475228E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2049,8 +4246,28 @@
       <c r="E97">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="8"/>
+        <v>0.78610415979109771</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="11"/>
+        <v>1.393303676875963E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2066,8 +4283,28 @@
       <c r="E98">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="8"/>
+        <v>0.86562904474348989</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="11"/>
+        <v>1.4832819972630752E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2083,8 +4320,28 @@
       <c r="E99">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="8"/>
+        <v>0.83109620988083022</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="11"/>
+        <v>5.3357524611872811E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -2100,8 +4357,28 @@
       <c r="E100">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="8"/>
+        <v>0.48948141970880543</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="11"/>
+        <v>0.17194376587341836</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2117,8 +4394,28 @@
       <c r="E101">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="8"/>
+        <v>0.85411932301117399</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="11"/>
+        <v>2.5023127308397312E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -2134,8 +4431,28 @@
       <c r="E102">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="8"/>
+        <v>1.9942236311492547</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="11"/>
+        <v>0.13890745150697123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -2151,8 +4468,28 @@
       <c r="E103">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="8"/>
+        <v>1.5713896009857711</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="11"/>
+        <v>2.5131302331827757E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -2168,8 +4505,28 @@
       <c r="E104">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="8"/>
+        <v>1.7139925194568193</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="11"/>
+        <v>8.5510315927442605E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -2185,8 +4542,28 @@
       <c r="E105">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="8"/>
+        <v>1.5872659320100337</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="11"/>
+        <v>1.1733912789060707E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -2202,8 +4579,28 @@
       <c r="E106">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="8"/>
+        <v>1.8148867068815189</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="11"/>
+        <v>3.7390400487132797E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -2219,8 +4616,28 @@
       <c r="E107">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="8"/>
+        <v>1.9163083428081558</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="11"/>
+        <v>8.689973585986982E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -2236,8 +4653,28 @@
       <c r="E108">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="8"/>
+        <v>1.4205650916307115</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="11"/>
+        <v>4.0383169141351961E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -2253,8 +4690,28 @@
       <c r="E109">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="8"/>
+        <v>1.7155741441297121</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="11"/>
+        <v>8.8460444525326008E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -2270,8 +4727,28 @@
       <c r="E110">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="8"/>
+        <v>1.7188696143094411</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="11"/>
+        <v>9.4768050103682909E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -2287,8 +4764,28 @@
       <c r="E111">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="8"/>
+        <v>1.8165895433912165</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="11"/>
+        <v>3.8051841424994362E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -2304,8 +4801,28 @@
       <c r="E112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="8"/>
+        <v>1.3795135023937375</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="11"/>
+        <v>5.8567498874752301E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -2321,8 +4838,28 @@
       <c r="E113">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="8"/>
+        <v>1.5615300202457794</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="11"/>
+        <v>3.598885420689737E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -2338,8 +4875,28 @@
       <c r="E114">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="8"/>
+        <v>1.6004979807198165</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="11"/>
+        <v>4.419560447245894E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -2355,8 +4912,28 @@
       <c r="E115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="8"/>
+        <v>1.6542062864521798</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="11"/>
+        <v>1.0683455113026073E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -2372,8 +4949,28 @@
       <c r="E116">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="8"/>
+        <v>1.8012236979276293</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="11"/>
+        <v>3.2293156191110041E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -2389,8 +4986,28 @@
       <c r="E117">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="8"/>
+        <v>1.6279440683251933</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="11"/>
+        <v>4.1259257693483508E-5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -2406,8 +5023,28 @@
       <c r="E118">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="8"/>
+        <v>1.4902230565116865</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="11"/>
+        <v>1.7239079422105192E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -2423,8 +5060,28 @@
       <c r="E119">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="8"/>
+        <v>1.7688209901530616</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="11"/>
+        <v>2.1697366238784495E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -2440,8 +5097,28 @@
       <c r="E120">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="8"/>
+        <v>2.2349110288469753</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="11"/>
+        <v>0.3762476570440042</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -2457,8 +5134,28 @@
       <c r="E121">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="8"/>
+        <v>1.4358977320446942</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="11"/>
+        <v>3.4455897876975533E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -2474,8 +5171,28 @@
       <c r="E122">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="8"/>
+        <v>1.7118355625695323</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="11"/>
+        <v>8.1567687353526798E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -2491,8 +5208,28 @@
       <c r="E123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="8"/>
+        <v>1.5456378684194607</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="11"/>
+        <v>5.7582088889379318E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -2508,8 +5245,28 @@
       <c r="E124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="8"/>
+        <v>1.9453518758884834</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="11"/>
+        <v>0.10486661016284961</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -2525,8 +5282,28 @@
       <c r="E125">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="8"/>
+        <v>1.3668726067004051</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="11"/>
+        <v>6.4845667395619339E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -2542,8 +5319,28 @@
       <c r="E126">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="8"/>
+        <v>1.6103538917940956</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="11"/>
+        <v>1.24698306020922E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -2559,8 +5356,28 @@
       <c r="E127">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="8"/>
+        <v>1.5280561733589935</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="11"/>
+        <v>8.735623603413888E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -2576,8 +5393,28 @@
       <c r="E128">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="8"/>
+        <v>1.3142342979410533</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="11"/>
+        <v>9.4424952166921622E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -2593,8 +5430,28 @@
       <c r="E129">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="8"/>
+        <v>1.3125804872830173</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="11"/>
+        <v>9.5444074413949753E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -2610,8 +5467,28 @@
       <c r="E130">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="8"/>
+        <v>1.7551089553475108</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="9"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="11"/>
+        <v>1.7845813586578885E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -2627,8 +5504,28 @@
       <c r="E131">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <f t="shared" ref="F131:F151" si="12">IF(A131=L$1,K$1,IF(A131=$L$2,K$2,K$3))</f>
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G151" si="13">M$6*B131+M$7*C131+M$8*D131+M$9*E131+M$5</f>
+        <v>1.4019170692629459</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" ref="H131:H151" si="14">IF(G131&lt;M$12,L$1,IF(G131&lt;M$13,L$2,L$3))</f>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I151" si="15">IF(H131&lt;&gt;A131,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J151" si="16">IF(F131=K$1,(G131-K$12)^2,IF(F131=K$2, (G131-K$13)^2,(G131-K$14)^2))</f>
+        <v>4.8225768408999045E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -2644,8 +5541,28 @@
       <c r="E132">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="13"/>
+        <v>1.7013479540977732</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="16"/>
+        <v>6.3723854890947737E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -2661,8 +5578,28 @@
       <c r="E133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="13"/>
+        <v>1.5176739559219825</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="16"/>
+        <v>1.0784152770085525E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -2678,8 +5615,28 @@
       <c r="E134">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="13"/>
+        <v>1.8066687856632193</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="16"/>
+        <v>3.4279802010107878E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -2695,8 +5652,28 @@
       <c r="E135">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="13"/>
+        <v>1.2631776138545949</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="16"/>
+        <v>0.12840978986767304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -2712,8 +5689,28 @@
       <c r="E136">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="13"/>
+        <v>1.4945248191499154</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="16"/>
+        <v>1.6127961719553066E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -2729,8 +5726,28 @@
       <c r="E137">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="13"/>
+        <v>1.8072525993482433</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="16"/>
+        <v>3.4496326784235476E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2746,8 +5763,28 @@
       <c r="E138">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="13"/>
+        <v>1.7567996407208648</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="16"/>
+        <v>1.8300383316286892E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -2763,8 +5800,28 @@
       <c r="E139">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="13"/>
+        <v>1.4770595241213347</v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="16"/>
+        <v>2.0869040398537916E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -2780,8 +5837,28 @@
       <c r="E140">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="13"/>
+        <v>1.2879072331603496</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="16"/>
+        <v>0.11129796618490012</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -2797,8 +5874,28 @@
       <c r="E141">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="13"/>
+        <v>1.5182566274678015</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="16"/>
+        <v>1.0663475153863452E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -2814,8 +5911,28 @@
       <c r="E142">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="13"/>
+        <v>1.781488715645589</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="16"/>
+        <v>2.5589755994528229E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -2831,8 +5948,28 @@
       <c r="E143">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="13"/>
+        <v>1.5029519589922191</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="16"/>
+        <v>1.4058553782185882E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -2848,8 +5985,28 @@
       <c r="E144">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="13"/>
+        <v>1.5713896009857711</v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="16"/>
+        <v>2.5131302331827757E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -2865,8 +6022,28 @@
       <c r="E145">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="13"/>
+        <v>1.8055866375538636</v>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="16"/>
+        <v>3.388025782082086E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -2882,8 +6059,28 @@
       <c r="E146">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="13"/>
+        <v>1.8165932130569291</v>
+      </c>
+      <c r="H146" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="16"/>
+        <v>3.8053273113122996E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -2899,8 +6096,28 @@
       <c r="E147">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="13"/>
+        <v>1.5999948344905666</v>
+      </c>
+      <c r="H147" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="16"/>
+        <v>4.633642362846087E-4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -2916,8 +6133,28 @@
       <c r="E148">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="13"/>
+        <v>1.5138373226584807</v>
+      </c>
+      <c r="H148" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="16"/>
+        <v>1.1595716510834695E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -2933,8 +6170,28 @@
       <c r="E149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="13"/>
+        <v>1.4749183880361052</v>
+      </c>
+      <c r="H149" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="16"/>
+        <v>2.149224706976741E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -2950,8 +6207,28 @@
       <c r="E150">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="13"/>
+        <v>1.6410917799134894</v>
+      </c>
+      <c r="H150" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="16"/>
+        <v>3.8302594125472152E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -2967,8 +6244,36 @@
       <c r="E151">
         <v>1.8</v>
       </c>
+      <c r="F151">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="13"/>
+        <v>1.4211330845136791</v>
+      </c>
+      <c r="H151" t="str">
+        <f t="shared" si="14"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="16"/>
+        <v>4.0155209010943556E-2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K16:L16"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H2:H151">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>H2&lt;&gt;A2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
